--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2827,28 +2827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.19934847971433</v>
+        <v>101.0284063974267</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.7322867354465</v>
+        <v>138.231522691628</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.25959129967521</v>
+        <v>125.0389001751367</v>
       </c>
       <c r="AD2" t="n">
-        <v>80199.34847971433</v>
+        <v>101028.4063974267</v>
       </c>
       <c r="AE2" t="n">
-        <v>109732.2867354465</v>
+        <v>138231.522691628</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.840471743227592e-06</v>
+        <v>6.49250803154451e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>99259.5912996752</v>
+        <v>125038.9001751367</v>
       </c>
     </row>
     <row r="3">
@@ -2933,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.76523646139566</v>
+        <v>86.67954572512865</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.98289788391277</v>
+        <v>118.5987784927435</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.39505640168426</v>
+        <v>107.279877527858</v>
       </c>
       <c r="AD3" t="n">
-        <v>65765.23646139566</v>
+        <v>86679.54572512864</v>
       </c>
       <c r="AE3" t="n">
-        <v>89982.89788391277</v>
+        <v>118598.7784927435</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.448121231427259e-06</v>
+        <v>7.519769640605241e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>81395.05640168425</v>
+        <v>107279.877527858</v>
       </c>
     </row>
     <row r="4">
@@ -3039,28 +3039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.64129670085192</v>
+        <v>85.38501376399272</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.44507391881487</v>
+        <v>116.8275427527988</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.00400019746532</v>
+        <v>105.677686040988</v>
       </c>
       <c r="AD4" t="n">
-        <v>64641.29670085192</v>
+        <v>85385.01376399271</v>
       </c>
       <c r="AE4" t="n">
-        <v>88445.07391881487</v>
+        <v>116827.5427527988</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.654600214741292e-06</v>
+        <v>7.868832606600371e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.348958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>80004.00019746531</v>
+        <v>105677.686040988</v>
       </c>
     </row>
     <row r="5">
@@ -3145,28 +3145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.94605420122667</v>
+        <v>84.68977126436747</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.4938124588937</v>
+        <v>115.8762812928776</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.14352579617488</v>
+        <v>104.8172116396976</v>
       </c>
       <c r="AD5" t="n">
-        <v>63946.05420122667</v>
+        <v>84689.77126436746</v>
       </c>
       <c r="AE5" t="n">
-        <v>87493.81245889371</v>
+        <v>115876.2812928776</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.766265990931021e-06</v>
+        <v>8.057609141680713e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.253472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>79143.52579617489</v>
+        <v>104817.2116396976</v>
       </c>
     </row>
     <row r="6">
@@ -3251,28 +3251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.50084070615226</v>
+        <v>84.24455776929305</v>
       </c>
       <c r="AB6" t="n">
-        <v>86.88465171350003</v>
+        <v>115.2671205474839</v>
       </c>
       <c r="AC6" t="n">
-        <v>78.59250249735891</v>
+        <v>104.2661883408816</v>
       </c>
       <c r="AD6" t="n">
-        <v>63500.84070615226</v>
+        <v>84244.55776929305</v>
       </c>
       <c r="AE6" t="n">
-        <v>86884.65171350003</v>
+        <v>115267.1205474839</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.82760747500849e-06</v>
+        <v>8.161309964045081e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.201388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>78592.5024973589</v>
+        <v>104266.1883408816</v>
       </c>
     </row>
     <row r="7">
@@ -3357,28 +3357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.90950106101888</v>
+        <v>83.65321812415966</v>
       </c>
       <c r="AB7" t="n">
-        <v>86.07555472296501</v>
+        <v>114.4580235569489</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.86062458802553</v>
+        <v>103.5343104315483</v>
       </c>
       <c r="AD7" t="n">
-        <v>62909.50106101888</v>
+        <v>83653.21812415967</v>
       </c>
       <c r="AE7" t="n">
-        <v>86075.55472296501</v>
+        <v>114458.0235569489</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.896815047417049e-06</v>
+        <v>8.278308799018578e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>77860.62458802553</v>
+        <v>103534.3104315483</v>
       </c>
     </row>
     <row r="8">
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>62.79181455933962</v>
+        <v>83.53553162248041</v>
       </c>
       <c r="AB8" t="n">
-        <v>85.91453085940549</v>
+        <v>114.2969996933894</v>
       </c>
       <c r="AC8" t="n">
-        <v>77.71496861600568</v>
+        <v>103.3886544595284</v>
       </c>
       <c r="AD8" t="n">
-        <v>62791.81455933962</v>
+        <v>83535.53162248041</v>
       </c>
       <c r="AE8" t="n">
-        <v>85914.53085940549</v>
+        <v>114296.9996933894</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.878632012372776e-06</v>
+        <v>8.247569476103112e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>77714.96861600567</v>
+        <v>103388.6544595284</v>
       </c>
     </row>
     <row r="9">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>62.50566818811973</v>
+        <v>83.24938525126053</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.5230127704157</v>
+        <v>113.9054816043996</v>
       </c>
       <c r="AC9" t="n">
-        <v>77.36081646392986</v>
+        <v>103.0345023074526</v>
       </c>
       <c r="AD9" t="n">
-        <v>62505.66818811974</v>
+        <v>83249.38525126054</v>
       </c>
       <c r="AE9" t="n">
-        <v>85523.01277041571</v>
+        <v>113905.4816043996</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.87550425024706e-06</v>
+        <v>8.242281839041915e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.157986111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>77360.81646392986</v>
+        <v>103034.5023074526</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.37897898194599</v>
+        <v>94.56534165895437</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.08615924316696</v>
+        <v>129.3884723861617</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.67933983472122</v>
+        <v>117.0398181795223</v>
       </c>
       <c r="AD2" t="n">
-        <v>64378.97898194599</v>
+        <v>94565.34165895436</v>
       </c>
       <c r="AE2" t="n">
-        <v>88086.15924316696</v>
+        <v>129388.4723861617</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.401610606613752e-06</v>
+        <v>7.622669666975904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>79679.33983472122</v>
+        <v>117039.8181795223</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.5934931167663</v>
+        <v>81.68937745846573</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.27493459546656</v>
+        <v>111.7710101196123</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.23185311830876</v>
+        <v>101.1037417854231</v>
       </c>
       <c r="AD3" t="n">
-        <v>61593.49311676629</v>
+        <v>81689.37745846572</v>
       </c>
       <c r="AE3" t="n">
-        <v>84274.93459546656</v>
+        <v>111771.0101196123</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.983781850609284e-06</v>
+        <v>8.630868592142612e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.201388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>76231.85311830876</v>
+        <v>101103.7417854231</v>
       </c>
     </row>
     <row r="4">
@@ -4078,28 +4078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.94458676222064</v>
+        <v>81.04047110392007</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.38707229344971</v>
+        <v>110.8831478175954</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.42872714827355</v>
+        <v>100.3006158153879</v>
       </c>
       <c r="AD4" t="n">
-        <v>60944.58676222064</v>
+        <v>81040.47110392006</v>
       </c>
       <c r="AE4" t="n">
-        <v>83387.0722934497</v>
+        <v>110883.1478175954</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.11576642214307e-06</v>
+        <v>8.859438286251331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>75428.72714827355</v>
+        <v>100300.6158153879</v>
       </c>
     </row>
     <row r="5">
@@ -4184,28 +4184,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.24486374296482</v>
+        <v>80.34074808466424</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.42968038890345</v>
+        <v>109.9257559130491</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.56270738338888</v>
+        <v>99.43459605050323</v>
       </c>
       <c r="AD5" t="n">
-        <v>60244.86374296482</v>
+        <v>80340.74808466424</v>
       </c>
       <c r="AE5" t="n">
-        <v>82429.68038890345</v>
+        <v>109925.7559130491</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.234059948660453e-06</v>
+        <v>9.064297951717599e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.001736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>74562.70738338889</v>
+        <v>99434.59605050323</v>
       </c>
     </row>
     <row r="6">
@@ -4290,28 +4290,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>49.502605683975</v>
+        <v>69.68374137169499</v>
       </c>
       <c r="AB6" t="n">
-        <v>67.73164899762263</v>
+        <v>95.34436917441755</v>
       </c>
       <c r="AC6" t="n">
-        <v>61.26743547927062</v>
+        <v>86.24483639709717</v>
       </c>
       <c r="AD6" t="n">
-        <v>49502.605683975</v>
+        <v>69683.741371695</v>
       </c>
       <c r="AE6" t="n">
-        <v>67731.64899762263</v>
+        <v>95344.36917441754</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.305630067582176e-06</v>
+        <v>9.188242440070736e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.949652777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>61267.43547927062</v>
+        <v>86244.83639709717</v>
       </c>
     </row>
     <row r="7">
@@ -4396,28 +4396,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>49.52571393262031</v>
+        <v>79.62673575505704</v>
       </c>
       <c r="AB7" t="n">
-        <v>67.7632667228831</v>
+        <v>108.9488127436803</v>
       </c>
       <c r="AC7" t="n">
-        <v>61.29603565320799</v>
+        <v>98.55089096607023</v>
       </c>
       <c r="AD7" t="n">
-        <v>49525.71393262031</v>
+        <v>79626.73575505705</v>
       </c>
       <c r="AE7" t="n">
-        <v>67763.2667228831</v>
+        <v>108948.8127436802</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.288196320665347e-06</v>
+        <v>9.158050833933433e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.967013888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>61296.035653208</v>
+        <v>98550.89096607023</v>
       </c>
     </row>
   </sheetData>
@@ -4693,28 +4693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.87293895292484</v>
+        <v>62.10367017835533</v>
       </c>
       <c r="AB2" t="n">
-        <v>60.0288906128361</v>
+        <v>84.97298135855578</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.29981754383637</v>
+        <v>76.86327927804376</v>
       </c>
       <c r="AD2" t="n">
-        <v>43872.93895292484</v>
+        <v>62103.67017835533</v>
       </c>
       <c r="AE2" t="n">
-        <v>60028.8906128361</v>
+        <v>84972.98135855579</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.114737686453808e-06</v>
+        <v>1.157039953145845e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>54299.81754383637</v>
+        <v>76863.27927804376</v>
       </c>
     </row>
     <row r="3">
@@ -4799,28 +4799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.93674008295611</v>
+        <v>61.1674713083866</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.74794201676636</v>
+        <v>83.69203276248605</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.14112088395247</v>
+        <v>75.70458261815986</v>
       </c>
       <c r="AD3" t="n">
-        <v>42936.74008295612</v>
+        <v>61167.4713083866</v>
       </c>
       <c r="AE3" t="n">
-        <v>58747.94201676636</v>
+        <v>83692.03276248605</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.441648462947218e-06</v>
+        <v>1.218898506842229e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.628472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>53141.12088395247</v>
+        <v>75704.58261815987</v>
       </c>
     </row>
   </sheetData>
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.41405849891763</v>
+        <v>76.32206871084171</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.55644776768668</v>
+        <v>104.4272215021665</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.05913064742369</v>
+        <v>94.46083404655205</v>
       </c>
       <c r="AD2" t="n">
-        <v>57414.05849891763</v>
+        <v>76322.0687108417</v>
       </c>
       <c r="AE2" t="n">
-        <v>78556.44776768668</v>
+        <v>104427.2215021665</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.336721871575564e-06</v>
+        <v>9.722348248611905e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71059.13064742369</v>
+        <v>94460.83404655205</v>
       </c>
     </row>
     <row r="3">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>45.98902375084147</v>
+        <v>64.98228530878613</v>
       </c>
       <c r="AB3" t="n">
-        <v>62.92421118841678</v>
+        <v>88.9116295755459</v>
       </c>
       <c r="AC3" t="n">
-        <v>56.91881278729251</v>
+        <v>80.4260284371331</v>
       </c>
       <c r="AD3" t="n">
-        <v>45989.02375084147</v>
+        <v>64982.28530878614</v>
       </c>
       <c r="AE3" t="n">
-        <v>62924.21118841678</v>
+        <v>88911.6295755459</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.851244764743131e-06</v>
+        <v>1.065969721856704e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>56918.81278729251</v>
+        <v>80426.02843713309</v>
       </c>
     </row>
     <row r="4">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.39855112369516</v>
+        <v>64.39181268163982</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.11630049014179</v>
+        <v>88.10371887727091</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.18800795215084</v>
+        <v>79.69522360199142</v>
       </c>
       <c r="AD4" t="n">
-        <v>45398.55112369516</v>
+        <v>64391.81268163981</v>
       </c>
       <c r="AE4" t="n">
-        <v>62116.30049014179</v>
+        <v>88103.71887727091</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.961774005056869e-06</v>
+        <v>1.086105749025522e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>56188.00795215084</v>
+        <v>79695.22360199141</v>
       </c>
     </row>
   </sheetData>
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.03250666999692</v>
+        <v>58.63780660413462</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.14248585214983</v>
+        <v>80.23083391319986</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.78432579900446</v>
+        <v>72.57371572922536</v>
       </c>
       <c r="AD2" t="n">
-        <v>41032.50666999692</v>
+        <v>58637.80660413462</v>
       </c>
       <c r="AE2" t="n">
-        <v>56142.48585214983</v>
+        <v>80230.83391319987</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.77613141095549e-06</v>
+        <v>1.327903429276316e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.585069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>50784.32579900446</v>
+        <v>72573.71572922535</v>
       </c>
     </row>
     <row r="3">
@@ -5711,28 +5711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.13634100899913</v>
+        <v>58.74164094313685</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.2845565756197</v>
+        <v>80.37290463667037</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.91283749202431</v>
+        <v>72.7022274222454</v>
       </c>
       <c r="AD3" t="n">
-        <v>41136.34100899913</v>
+        <v>58741.64094313685</v>
       </c>
       <c r="AE3" t="n">
-        <v>56284.5565756197</v>
+        <v>80372.90463667037</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.717841687237995e-06</v>
+        <v>1.316480521525311e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.619791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>50912.83749202431</v>
+        <v>72702.2274222454</v>
       </c>
     </row>
   </sheetData>
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.69755945121506</v>
+        <v>96.13933806669127</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.89029921288473</v>
+        <v>131.542083711047</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.31129521785604</v>
+        <v>118.9878918621737</v>
       </c>
       <c r="AD2" t="n">
-        <v>65697.55945121506</v>
+        <v>96139.33806669127</v>
       </c>
       <c r="AE2" t="n">
-        <v>89890.29921288473</v>
+        <v>131542.083711047</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.248908374938674e-06</v>
+        <v>7.310167010576154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.887152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>81311.29521785604</v>
+        <v>118987.8918621737</v>
       </c>
     </row>
     <row r="3">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.84746725847274</v>
+        <v>83.11362889248404</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.99067733758318</v>
+        <v>113.7197337651739</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.78384778117837</v>
+        <v>102.8664819813037</v>
       </c>
       <c r="AD3" t="n">
-        <v>62847.46725847274</v>
+        <v>83113.62889248405</v>
       </c>
       <c r="AE3" t="n">
-        <v>85990.67733758318</v>
+        <v>113719.7337651739</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.800053952980833e-06</v>
+        <v>8.258402620078293e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.331597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>77783.84778117837</v>
+        <v>102866.4819813037</v>
       </c>
     </row>
     <row r="4">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.62215078454797</v>
+        <v>81.88831241855929</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.31414528081248</v>
+        <v>112.0432017084032</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.26732159087783</v>
+        <v>101.3499557910032</v>
       </c>
       <c r="AD4" t="n">
-        <v>61622.15078454797</v>
+        <v>81888.31241855929</v>
       </c>
       <c r="AE4" t="n">
-        <v>84314.14528081249</v>
+        <v>112043.2017084032</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.039564898214593e-06</v>
+        <v>8.670476700293073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.123263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>76267.32159087782</v>
+        <v>101349.9557910032</v>
       </c>
     </row>
     <row r="5">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.44314014379746</v>
+        <v>81.70930177780876</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.06921502474567</v>
+        <v>111.7982714523364</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.04576713468815</v>
+        <v>101.1284013348135</v>
       </c>
       <c r="AD5" t="n">
-        <v>61443.14014379746</v>
+        <v>81709.30177780877</v>
       </c>
       <c r="AE5" t="n">
-        <v>84069.21502474567</v>
+        <v>111798.2714523364</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.047533441002368e-06</v>
+        <v>8.684186428408923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>76045.76713468815</v>
+        <v>101128.4013348135</v>
       </c>
     </row>
     <row r="6">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.8916996214401</v>
+        <v>81.15786125545141</v>
       </c>
       <c r="AB6" t="n">
-        <v>83.31470977421783</v>
+        <v>111.0437662018085</v>
       </c>
       <c r="AC6" t="n">
-        <v>75.36327080631567</v>
+        <v>100.4459050064411</v>
       </c>
       <c r="AD6" t="n">
-        <v>60891.69962144009</v>
+        <v>81157.86125545141</v>
       </c>
       <c r="AE6" t="n">
-        <v>83314.70977421783</v>
+        <v>111043.7662018085</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.116498426931402e-06</v>
+        <v>8.802839390660797e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH6" t="n">
-        <v>75363.27080631568</v>
+        <v>100445.9050064411</v>
       </c>
     </row>
     <row r="7">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.3682161460897</v>
+        <v>80.63437778010102</v>
       </c>
       <c r="AB7" t="n">
-        <v>82.59845658878278</v>
+        <v>110.3275130163735</v>
       </c>
       <c r="AC7" t="n">
-        <v>74.71537581963067</v>
+        <v>99.79801001975603</v>
       </c>
       <c r="AD7" t="n">
-        <v>60368.2161460897</v>
+        <v>80634.37778010101</v>
       </c>
       <c r="AE7" t="n">
-        <v>82598.45658878278</v>
+        <v>110327.5130163735</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.192977294047707e-06</v>
+        <v>8.934419844289176e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.001736111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>74715.37581963066</v>
+        <v>99798.01001975604</v>
       </c>
     </row>
   </sheetData>
@@ -6835,28 +6835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.07504990402253</v>
+        <v>57.310000869868</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.83245126493863</v>
+        <v>78.41407152892246</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.59931907414772</v>
+        <v>70.93034259706077</v>
       </c>
       <c r="AD2" t="n">
-        <v>40075.04990402253</v>
+        <v>57310.000869868</v>
       </c>
       <c r="AE2" t="n">
-        <v>54832.45126493863</v>
+        <v>78414.07152892246</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.833449359782204e-06</v>
+        <v>1.369874516709992e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.637152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>49599.31907414772</v>
+        <v>70930.34259706078</v>
       </c>
     </row>
   </sheetData>
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.48770168377323</v>
+        <v>80.03095382638229</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.7619419727712</v>
+        <v>109.5018817417099</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.86325838802446</v>
+        <v>99.05117583516534</v>
       </c>
       <c r="AD2" t="n">
-        <v>60487.70168377323</v>
+        <v>80030.95382638229</v>
       </c>
       <c r="AE2" t="n">
-        <v>82761.94197277119</v>
+        <v>109501.8817417099</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.915860492215951e-06</v>
+        <v>8.706354214067829e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>74863.25838802446</v>
+        <v>99051.17583516534</v>
       </c>
     </row>
     <row r="3">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.80157864996379</v>
+        <v>78.34483079257285</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.45491405141597</v>
+        <v>107.1948538203547</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.77640997354862</v>
+        <v>96.9643274206895</v>
       </c>
       <c r="AD3" t="n">
-        <v>58801.57864996379</v>
+        <v>78344.83079257284</v>
       </c>
       <c r="AE3" t="n">
-        <v>80454.91405141597</v>
+        <v>107194.8538203547</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.361705225312786e-06</v>
+        <v>9.495978365722264e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>72776.40997354862</v>
+        <v>96964.3274206895</v>
       </c>
     </row>
     <row r="4">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.06046452922661</v>
+        <v>67.68896801785624</v>
       </c>
       <c r="AB4" t="n">
-        <v>65.75844784691937</v>
+        <v>92.61503226850732</v>
       </c>
       <c r="AC4" t="n">
-        <v>59.48255387698465</v>
+        <v>83.77598357483777</v>
       </c>
       <c r="AD4" t="n">
-        <v>48060.46452922661</v>
+        <v>67688.96801785624</v>
       </c>
       <c r="AE4" t="n">
-        <v>65758.44784691937</v>
+        <v>92615.03226850732</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.541849286043447e-06</v>
+        <v>9.815026883222948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.897569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>59482.55387698465</v>
+        <v>83775.98357483777</v>
       </c>
     </row>
     <row r="5">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.6094398653731</v>
+        <v>67.23794335400274</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.14133600403147</v>
+        <v>91.99792042561941</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.92433832225986</v>
+        <v>83.21776802011297</v>
       </c>
       <c r="AD5" t="n">
-        <v>47609.4398653731</v>
+        <v>67237.94335400274</v>
       </c>
       <c r="AE5" t="n">
-        <v>65141.33600403147</v>
+        <v>91997.92042561941</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.588197633666872e-06</v>
+        <v>9.897113250866059e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.862847222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>58924.33832225986</v>
+        <v>83217.76802011297</v>
       </c>
     </row>
     <row r="6">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>47.60226722077481</v>
+        <v>67.23077070940442</v>
       </c>
       <c r="AB6" t="n">
-        <v>65.13152207525735</v>
+        <v>91.98810649684529</v>
       </c>
       <c r="AC6" t="n">
-        <v>58.915461021074</v>
+        <v>83.20889071892709</v>
       </c>
       <c r="AD6" t="n">
-        <v>47602.26722077481</v>
+        <v>67230.77070940443</v>
       </c>
       <c r="AE6" t="n">
-        <v>65131.52207525734</v>
+        <v>91988.10649684528</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.579838511390184e-06</v>
+        <v>9.88230862417358e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>58915.461021074</v>
+        <v>83208.8907189271</v>
       </c>
     </row>
   </sheetData>
@@ -7853,28 +7853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.99203848535249</v>
+        <v>92.91327271225738</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.18848606823236</v>
+        <v>127.128038769154</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.96277792420074</v>
+        <v>114.9951171743826</v>
       </c>
       <c r="AD2" t="n">
-        <v>62992.03848535249</v>
+        <v>92913.27271225739</v>
       </c>
       <c r="AE2" t="n">
-        <v>86188.48606823236</v>
+        <v>127128.038769154</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.573805139397149e-06</v>
+        <v>7.976316782082965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.626736111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>77962.77792420074</v>
+        <v>114995.1171743826</v>
       </c>
     </row>
     <row r="3">
@@ -7959,28 +7959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.6721006978283</v>
+        <v>80.59123273945873</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.01424483891157</v>
+        <v>110.2684800683419</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.09148182272975</v>
+        <v>99.74461109343129</v>
       </c>
       <c r="AD3" t="n">
-        <v>60672.1006978283</v>
+        <v>80591.23273945873</v>
       </c>
       <c r="AE3" t="n">
-        <v>83014.24483891156</v>
+        <v>110268.4800683419</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.09925024662464e-06</v>
+        <v>8.892647167639015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>75091.48182272975</v>
+        <v>99744.61109343129</v>
       </c>
     </row>
     <row r="4">
@@ -8065,28 +8065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.00789354426961</v>
+        <v>79.92702558590004</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.10544730866148</v>
+        <v>109.3596825380918</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.26941865326113</v>
+        <v>98.92254792396265</v>
       </c>
       <c r="AD4" t="n">
-        <v>60007.89354426961</v>
+        <v>79927.02558590005</v>
       </c>
       <c r="AE4" t="n">
-        <v>82105.44730866149</v>
+        <v>109359.6825380918</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.233365990731417e-06</v>
+        <v>9.126533314481165e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.045138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>74269.41865326112</v>
+        <v>98922.54792396266</v>
       </c>
     </row>
     <row r="5">
@@ -8171,28 +8171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>49.27725345182716</v>
+        <v>69.28163683947815</v>
       </c>
       <c r="AB5" t="n">
-        <v>67.42331213175926</v>
+        <v>94.7941920138388</v>
       </c>
       <c r="AC5" t="n">
-        <v>60.98852585113165</v>
+        <v>85.74716737254541</v>
       </c>
       <c r="AD5" t="n">
-        <v>49277.25345182716</v>
+        <v>69281.63683947816</v>
       </c>
       <c r="AE5" t="n">
-        <v>67423.31213175926</v>
+        <v>94794.19201383879</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.353392512720105e-06</v>
+        <v>9.335849088209037e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.949652777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>60988.52585113165</v>
+        <v>85747.1673725454</v>
       </c>
     </row>
     <row r="6">
@@ -8277,28 +8277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>48.79539111491432</v>
+        <v>68.79977450256533</v>
       </c>
       <c r="AB6" t="n">
-        <v>66.76400682412948</v>
+        <v>94.13488670620902</v>
       </c>
       <c r="AC6" t="n">
-        <v>60.39214371672103</v>
+        <v>85.15078523813479</v>
       </c>
       <c r="AD6" t="n">
-        <v>48795.39111491432</v>
+        <v>68799.77450256533</v>
       </c>
       <c r="AE6" t="n">
-        <v>66764.00682412948</v>
+        <v>94134.88670620901</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.408506234534976e-06</v>
+        <v>9.431962606567834e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.914930555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>60392.14371672103</v>
+        <v>85150.78523813479</v>
       </c>
     </row>
   </sheetData>
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.73320929066905</v>
+        <v>99.40814944691854</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.7262504154997</v>
+        <v>136.014615651252</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.44500827061387</v>
+        <v>123.0335716312449</v>
       </c>
       <c r="AD2" t="n">
-        <v>78733.20929066905</v>
+        <v>99408.14944691854</v>
       </c>
       <c r="AE2" t="n">
-        <v>107726.2504154997</v>
+        <v>136014.615651252</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.971731716873173e-06</v>
+        <v>6.751680686688777e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>97445.00827061386</v>
+        <v>123033.5716312449</v>
       </c>
     </row>
     <row r="3">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.93322492016934</v>
+        <v>85.69341642243938</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.84450298744882</v>
+        <v>117.2495128758503</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.36530831639121</v>
+        <v>106.0593839277345</v>
       </c>
       <c r="AD3" t="n">
-        <v>64933.22492016933</v>
+        <v>85693.41642243939</v>
       </c>
       <c r="AE3" t="n">
-        <v>88844.50298744882</v>
+        <v>117249.5128758503</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.535770888290408e-06</v>
+        <v>7.710509895624313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>80365.30831639121</v>
+        <v>106059.3839277345</v>
       </c>
     </row>
     <row r="4">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.73486803890437</v>
+        <v>84.32446734058223</v>
       </c>
       <c r="AB4" t="n">
-        <v>87.20485823472855</v>
+        <v>115.3764563482832</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.88214895761416</v>
+        <v>104.3650892863064</v>
       </c>
       <c r="AD4" t="n">
-        <v>63734.86803890437</v>
+        <v>84324.46734058223</v>
       </c>
       <c r="AE4" t="n">
-        <v>87204.85823472854</v>
+        <v>115376.4563482832</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.753147015797347e-06</v>
+        <v>8.080034905483549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>78882.14895761416</v>
+        <v>104365.0892863064</v>
       </c>
     </row>
     <row r="5">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.08631871065067</v>
+        <v>83.67591801232854</v>
       </c>
       <c r="AB5" t="n">
-        <v>86.31748443183525</v>
+        <v>114.4890825453899</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.07946486503177</v>
+        <v>103.562405193724</v>
       </c>
       <c r="AD5" t="n">
-        <v>63086.31871065067</v>
+        <v>83675.91801232853</v>
       </c>
       <c r="AE5" t="n">
-        <v>86317.48443183526</v>
+        <v>114489.0825453899</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.866481879548935e-06</v>
+        <v>8.272696662436891e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>78079.46486503177</v>
+        <v>103562.405193724</v>
       </c>
     </row>
     <row r="6">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.59273824348264</v>
+        <v>83.18233754516049</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.64214586142289</v>
+        <v>113.8137439749776</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.4685796599357</v>
+        <v>102.951519988628</v>
       </c>
       <c r="AD6" t="n">
-        <v>62592.73824348264</v>
+        <v>83182.3375451605</v>
       </c>
       <c r="AE6" t="n">
-        <v>85642.14586142289</v>
+        <v>113813.7439749776</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.934525148382148e-06</v>
+        <v>8.388365709791897e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>77468.5796599357</v>
+        <v>102951.519988628</v>
       </c>
     </row>
     <row r="7">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.15851494797066</v>
+        <v>82.74811424964852</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.04802239192391</v>
+        <v>113.2196205054786</v>
       </c>
       <c r="AC7" t="n">
-        <v>76.931158500508</v>
+        <v>102.4140988292003</v>
       </c>
       <c r="AD7" t="n">
-        <v>62158.51494797066</v>
+        <v>82748.11424964853</v>
       </c>
       <c r="AE7" t="n">
-        <v>85048.02239192391</v>
+        <v>113219.6205054786</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.979793215199266e-06</v>
+        <v>8.465318423177455e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>76931.158500508</v>
+        <v>102414.0988292003</v>
       </c>
     </row>
     <row r="8">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.81880945038267</v>
+        <v>82.40840875206052</v>
       </c>
       <c r="AB8" t="n">
-        <v>84.58322234337541</v>
+        <v>112.7548204569301</v>
       </c>
       <c r="AC8" t="n">
-        <v>76.51071831624184</v>
+        <v>101.9936586449341</v>
       </c>
       <c r="AD8" t="n">
-        <v>61818.80945038267</v>
+        <v>82408.40875206052</v>
       </c>
       <c r="AE8" t="n">
-        <v>84583.22234337541</v>
+        <v>112754.8204569301</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.981534294692232e-06</v>
+        <v>8.468278142923054e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>76510.71831624184</v>
+        <v>101993.6586449341</v>
       </c>
     </row>
     <row r="9">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>61.84194189315219</v>
+        <v>82.43154119483005</v>
       </c>
       <c r="AB9" t="n">
-        <v>84.614873172104</v>
+        <v>112.7864712856586</v>
       </c>
       <c r="AC9" t="n">
-        <v>76.5393484342988</v>
+        <v>102.0222887629911</v>
       </c>
       <c r="AD9" t="n">
-        <v>61841.94189315219</v>
+        <v>82431.54119483005</v>
       </c>
       <c r="AE9" t="n">
-        <v>84614.87317210399</v>
+        <v>112786.4712856587</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.981534294692232e-06</v>
+        <v>8.468278142923054e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>76539.34843429881</v>
+        <v>102022.2887629911</v>
       </c>
     </row>
   </sheetData>
@@ -9613,28 +9613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.84338465372504</v>
+        <v>77.97442603001218</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.5121148701128</v>
+        <v>106.6880496831146</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.82815162639089</v>
+        <v>96.50589195900338</v>
       </c>
       <c r="AD2" t="n">
-        <v>58843.38465372504</v>
+        <v>77974.42603001218</v>
       </c>
       <c r="AE2" t="n">
-        <v>80512.1148701128</v>
+        <v>106688.0496831146</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.114331531653295e-06</v>
+        <v>9.2223500066903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72828.15162639089</v>
+        <v>96505.89195900338</v>
       </c>
     </row>
     <row r="3">
@@ -9719,28 +9719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>46.92346574607031</v>
+        <v>66.13975846837805</v>
       </c>
       <c r="AB3" t="n">
-        <v>64.2027559509596</v>
+        <v>90.49533541661063</v>
       </c>
       <c r="AC3" t="n">
-        <v>58.07533503214749</v>
+        <v>81.8585876154722</v>
       </c>
       <c r="AD3" t="n">
-        <v>46923.46574607032</v>
+        <v>66139.75846837804</v>
       </c>
       <c r="AE3" t="n">
-        <v>64202.7559509596</v>
+        <v>90495.33541661063</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.707125232023946e-06</v>
+        <v>1.029129732712574e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>58075.33503214749</v>
+        <v>81858.58761547221</v>
       </c>
     </row>
     <row r="4">
@@ -9825,28 +9825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.07325451857994</v>
+        <v>65.28954724088766</v>
       </c>
       <c r="AB4" t="n">
-        <v>63.03945944083571</v>
+        <v>89.33203890648673</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.02306190825254</v>
+        <v>80.80631449157725</v>
       </c>
       <c r="AD4" t="n">
-        <v>46073.25451857994</v>
+        <v>65289.54724088766</v>
       </c>
       <c r="AE4" t="n">
-        <v>63039.45944083571</v>
+        <v>89332.03890648673</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.872447705462368e-06</v>
+        <v>1.058941286863581e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.758680555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>57023.06190825254</v>
+        <v>80806.31449157726</v>
       </c>
     </row>
     <row r="5">
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.1210817719752</v>
+        <v>65.33737449428293</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.10489879892059</v>
+        <v>89.39747826457162</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.08225582584654</v>
+        <v>80.86550840917127</v>
       </c>
       <c r="AD5" t="n">
-        <v>46121.0817719752</v>
+        <v>65337.37449428293</v>
       </c>
       <c r="AE5" t="n">
-        <v>63104.89879892059</v>
+        <v>89397.47826457162</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.869444156291354e-06</v>
+        <v>1.058399675872077e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.767361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>57082.25582584654</v>
+        <v>80865.50840917126</v>
       </c>
     </row>
   </sheetData>
@@ -10228,28 +10228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>45.11120644385083</v>
+        <v>63.61464744280308</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.72314282242641</v>
+        <v>87.04036711138446</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.83237270044182</v>
+        <v>78.73335663621724</v>
       </c>
       <c r="AD2" t="n">
-        <v>45111.20644385083</v>
+        <v>63614.64744280308</v>
       </c>
       <c r="AE2" t="n">
-        <v>61723.14282242641</v>
+        <v>87040.36711138446</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.873953526333265e-06</v>
+        <v>1.095891971355048e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.914930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>55832.37270044182</v>
+        <v>78733.35663621724</v>
       </c>
     </row>
     <row r="3">
@@ -10334,28 +10334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.89230989581626</v>
+        <v>62.3957508947685</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.05539479148582</v>
+        <v>85.37261908044387</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.32379220087461</v>
+        <v>77.22477613665004</v>
       </c>
       <c r="AD3" t="n">
-        <v>43892.30989581626</v>
+        <v>62395.7508947685</v>
       </c>
       <c r="AE3" t="n">
-        <v>60055.39479148581</v>
+        <v>85372.61908044387</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.238288292402045e-06</v>
+        <v>1.163865193007268e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.689236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>54323.79220087461</v>
+        <v>77224.77613665003</v>
       </c>
     </row>
     <row r="4">
@@ -10440,28 +10440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.92918454000247</v>
+        <v>62.43262553895472</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.10584830645585</v>
+        <v>85.42307259541388</v>
       </c>
       <c r="AC4" t="n">
-        <v>54.36943050318788</v>
+        <v>77.27041443896329</v>
       </c>
       <c r="AD4" t="n">
-        <v>43929.18454000247</v>
+        <v>62432.62553895472</v>
       </c>
       <c r="AE4" t="n">
-        <v>60105.84830645585</v>
+        <v>85423.07259541389</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.219993336533661e-06</v>
+        <v>1.160451939027207e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>54369.43050318788</v>
+        <v>77270.41443896329</v>
       </c>
     </row>
   </sheetData>
@@ -18454,28 +18454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.45166637065017</v>
+        <v>60.38531166363533</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.08424276364782</v>
+        <v>82.62184743008969</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.54076415604361</v>
+        <v>74.73653427187251</v>
       </c>
       <c r="AD2" t="n">
-        <v>42451.66637065016</v>
+        <v>60385.31166363533</v>
       </c>
       <c r="AE2" t="n">
-        <v>58084.24276364782</v>
+        <v>82621.84743008969</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.444362792133084e-06</v>
+        <v>1.239274862949394e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>52540.76415604362</v>
+        <v>74736.53427187252</v>
       </c>
     </row>
     <row r="3">
@@ -18560,28 +18560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.09072420239583</v>
+        <v>60.02436949538446</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.59038576523367</v>
+        <v>82.12799043184448</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.09404017652818</v>
+        <v>74.28981029240701</v>
       </c>
       <c r="AD3" t="n">
-        <v>42090.72420239583</v>
+        <v>60024.36949538446</v>
       </c>
       <c r="AE3" t="n">
-        <v>57590.38576523367</v>
+        <v>82127.99043184448</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.577882081157854e-06</v>
+        <v>1.264951117366552e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.619791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>52094.04017652818</v>
+        <v>74289.81029240701</v>
       </c>
     </row>
   </sheetData>
@@ -18857,28 +18857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.78024914664513</v>
+        <v>55.58438264685312</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.06084774612557</v>
+        <v>76.05300454729159</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.99679490870373</v>
+        <v>68.79461253437769</v>
       </c>
       <c r="AD2" t="n">
-        <v>38780.24914664513</v>
+        <v>55584.38264685312</v>
       </c>
       <c r="AE2" t="n">
-        <v>53060.84774612557</v>
+        <v>76053.0045472916</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.975968091120014e-06</v>
+        <v>1.438862705059229e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.663194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>47996.79490870373</v>
+        <v>68794.61253437769</v>
       </c>
     </row>
   </sheetData>
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.62620420572261</v>
+        <v>81.36140480007653</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.31969135048796</v>
+        <v>111.3222634592719</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.27233835144743</v>
+        <v>100.6978228765256</v>
       </c>
       <c r="AD2" t="n">
-        <v>61626.20420572261</v>
+        <v>81361.40480007653</v>
       </c>
       <c r="AE2" t="n">
-        <v>84319.69135048796</v>
+        <v>111322.2634592719</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.755805765678856e-06</v>
+        <v>8.355763124338503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.496527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>76272.33835144743</v>
+        <v>100697.8228765256</v>
       </c>
     </row>
     <row r="3">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.07139842689662</v>
+        <v>79.80659902125056</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.19233749070941</v>
+        <v>109.1949095994933</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.34801615828556</v>
+        <v>98.77350068336375</v>
       </c>
       <c r="AD3" t="n">
-        <v>60071.39842689662</v>
+        <v>79806.59902125056</v>
       </c>
       <c r="AE3" t="n">
-        <v>82192.33749070941</v>
+        <v>109194.9095994933</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.156753366040425e-06</v>
+        <v>9.06021224168276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>74348.01615828557</v>
+        <v>98773.50068336375</v>
       </c>
     </row>
     <row r="4">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>48.90128388553924</v>
+        <v>68.72173582591374</v>
       </c>
       <c r="AB4" t="n">
-        <v>66.90889398455776</v>
+        <v>94.02811074599094</v>
       </c>
       <c r="AC4" t="n">
-        <v>60.5232030499085</v>
+        <v>85.05419982569889</v>
       </c>
       <c r="AD4" t="n">
-        <v>48901.28388553923</v>
+        <v>68721.73582591374</v>
       </c>
       <c r="AE4" t="n">
-        <v>66908.89398455777</v>
+        <v>94028.11074599094</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.407499486001284e-06</v>
+        <v>9.500763283077287e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.949652777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>60523.20304990849</v>
+        <v>85054.19982569889</v>
       </c>
     </row>
     <row r="5">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.42860765310972</v>
+        <v>68.24905959348422</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.26215751034438</v>
+        <v>93.38137427177755</v>
       </c>
       <c r="AC5" t="n">
-        <v>59.93819019709348</v>
+        <v>84.46918697288388</v>
       </c>
       <c r="AD5" t="n">
-        <v>48428.60765310972</v>
+        <v>68249.05959348421</v>
       </c>
       <c r="AE5" t="n">
-        <v>66262.15751034438</v>
+        <v>93381.37427177755</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.47296182600874e-06</v>
+        <v>9.615778032126679e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH5" t="n">
-        <v>59938.19019709348</v>
+        <v>84469.18697288388</v>
       </c>
     </row>
     <row r="6">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>48.10381065580452</v>
+        <v>67.92426259617903</v>
       </c>
       <c r="AB6" t="n">
-        <v>65.81775592959941</v>
+        <v>92.93697269103257</v>
       </c>
       <c r="AC6" t="n">
-        <v>59.53620167949313</v>
+        <v>84.06719845528353</v>
       </c>
       <c r="AD6" t="n">
-        <v>48103.81065580453</v>
+        <v>67924.26259617903</v>
       </c>
       <c r="AE6" t="n">
-        <v>65817.75592959941</v>
+        <v>92936.97269103257</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.531358467790494e-06</v>
+        <v>9.718378628119591e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.862847222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>59536.20167949313</v>
+        <v>84067.19845528353</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.32445462039576</v>
+        <v>97.84035767377766</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.798730125763</v>
+        <v>133.8694937811501</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.70144781203734</v>
+        <v>121.0931771817275</v>
       </c>
       <c r="AD2" t="n">
-        <v>77324.45462039576</v>
+        <v>97840.35767377766</v>
       </c>
       <c r="AE2" t="n">
-        <v>105798.730125763</v>
+        <v>133869.4937811501</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.108417147790272e-06</v>
+        <v>7.024935470872611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.008680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>95701.44781203734</v>
+        <v>121093.1771817275</v>
       </c>
     </row>
     <row r="3">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.7651197395673</v>
+        <v>84.19568193837756</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.24624994618641</v>
+        <v>115.2002464793759</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.91959030222412</v>
+        <v>104.2056966399755</v>
       </c>
       <c r="AD3" t="n">
-        <v>63765.1197395673</v>
+        <v>84195.68193837756</v>
       </c>
       <c r="AE3" t="n">
-        <v>87246.24994618641</v>
+        <v>115200.2464793759</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.691073765873096e-06</v>
+        <v>8.021213355144954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>78919.59030222413</v>
+        <v>104205.6966399755</v>
       </c>
     </row>
     <row r="4">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.88097718402292</v>
+        <v>83.31153938283317</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.03652709607451</v>
+        <v>113.990523629264</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.82532170306985</v>
+        <v>103.1114280408212</v>
       </c>
       <c r="AD4" t="n">
-        <v>62880.97718402292</v>
+        <v>83311.53938283317</v>
       </c>
       <c r="AE4" t="n">
-        <v>86036.52709607451</v>
+        <v>113990.523629264</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.850118145662478e-06</v>
+        <v>8.29316152029812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.244791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>77825.32170306984</v>
+        <v>103111.4280408212</v>
       </c>
     </row>
     <row r="5">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.11076177043203</v>
+        <v>82.54132396924231</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.98268438769409</v>
+        <v>112.9366809208836</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.87205626369941</v>
+        <v>102.1581626014508</v>
       </c>
       <c r="AD5" t="n">
-        <v>62110.76177043204</v>
+        <v>82541.32396924231</v>
       </c>
       <c r="AE5" t="n">
-        <v>84982.6843876941</v>
+        <v>112936.6809208836</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.981097265712774e-06</v>
+        <v>8.517121218957225e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.131944444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>76872.0562636994</v>
+        <v>102158.1626014507</v>
       </c>
     </row>
     <row r="6">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.9049510532207</v>
+        <v>82.33551325203096</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.70108508467766</v>
+        <v>112.6550816178672</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.61733240293566</v>
+        <v>101.903438740687</v>
       </c>
       <c r="AD6" t="n">
-        <v>61904.9510532207</v>
+        <v>82335.51325203097</v>
       </c>
       <c r="AE6" t="n">
-        <v>84701.08508467766</v>
+        <v>112655.0816178672</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.002092831958837e-06</v>
+        <v>8.553021297441794e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.114583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>76617.33240293566</v>
+        <v>101903.438740687</v>
       </c>
     </row>
     <row r="7">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.21304613767835</v>
+        <v>81.64360833648863</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.75439025454256</v>
+        <v>111.7083867877321</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.7609887986938</v>
+        <v>101.0470951364452</v>
       </c>
       <c r="AD7" t="n">
-        <v>61213.04613767836</v>
+        <v>81643.60833648863</v>
       </c>
       <c r="AE7" t="n">
-        <v>83754.39025454255</v>
+        <v>111708.3867877321</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.090345381603303e-06</v>
+        <v>8.70392332225829e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.045138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>75760.9887986938</v>
+        <v>101047.0951364452</v>
       </c>
     </row>
     <row r="8">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.17126325393691</v>
+        <v>81.60182545274718</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.6972210696768</v>
+        <v>111.6512176028663</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.70927576059415</v>
+        <v>100.9953820983455</v>
       </c>
       <c r="AD8" t="n">
-        <v>61171.26325393691</v>
+        <v>81601.82545274717</v>
       </c>
       <c r="AE8" t="n">
-        <v>83697.2210696768</v>
+        <v>111651.2176028663</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.074616499771508e-06</v>
+        <v>8.677028687190188e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH8" t="n">
-        <v>75709.27576059416</v>
+        <v>100995.3820983455</v>
       </c>
     </row>
   </sheetData>
@@ -20808,28 +20808,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.31048193846014</v>
+        <v>53.58633887195715</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.04984741034366</v>
+        <v>73.31919290701009</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.17772162250616</v>
+        <v>66.32171204011505</v>
       </c>
       <c r="AD2" t="n">
-        <v>37310.48193846014</v>
+        <v>53586.33887195715</v>
       </c>
       <c r="AE2" t="n">
-        <v>51049.84741034366</v>
+        <v>73319.19290701009</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.915440261807529e-06</v>
+        <v>1.482297366687464e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>46177.72162250616</v>
+        <v>66321.71204011505</v>
       </c>
     </row>
   </sheetData>
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.80841885141356</v>
+        <v>74.47965545555154</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.35954076615084</v>
+        <v>101.9063504047435</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.07189336673537</v>
+        <v>92.18055134860145</v>
       </c>
       <c r="AD2" t="n">
-        <v>55808.41885141356</v>
+        <v>74479.65545555153</v>
       </c>
       <c r="AE2" t="n">
-        <v>76359.54076615084</v>
+        <v>101906.3504047435</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.63339701549052e-06</v>
+        <v>1.037915394449766e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>69071.89336673537</v>
+        <v>92180.55134860145</v>
       </c>
     </row>
     <row r="3">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.86986375747993</v>
+        <v>63.62635170763848</v>
       </c>
       <c r="AB3" t="n">
-        <v>61.39292711164603</v>
+        <v>87.05638140288795</v>
       </c>
       <c r="AC3" t="n">
-        <v>55.53367231363757</v>
+        <v>78.74784254621586</v>
       </c>
       <c r="AD3" t="n">
-        <v>44869.86375747994</v>
+        <v>63626.35170763847</v>
       </c>
       <c r="AE3" t="n">
-        <v>61392.92711164603</v>
+        <v>87056.38140288796</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.073522487300183e-06</v>
+        <v>1.119005543328779e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.732638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>55533.67231363757</v>
+        <v>78747.84254621586</v>
       </c>
     </row>
     <row r="4">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.61997916246118</v>
+        <v>63.37646711261972</v>
       </c>
       <c r="AB4" t="n">
-        <v>61.05102398461126</v>
+        <v>86.7144782758532</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.22439994118282</v>
+        <v>78.43857017376112</v>
       </c>
       <c r="AD4" t="n">
-        <v>44619.97916246118</v>
+        <v>63376.46711261972</v>
       </c>
       <c r="AE4" t="n">
-        <v>61051.02398461125</v>
+        <v>86714.47827585319</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.136516996800515e-06</v>
+        <v>1.130611856712412e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>55224.39994118283</v>
+        <v>78438.57017376112</v>
       </c>
     </row>
   </sheetData>
@@ -21614,28 +21614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.4599951785825</v>
+        <v>78.80227231436642</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.35578859315881</v>
+        <v>107.820745491368</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.59130631341317</v>
+        <v>97.53048486906594</v>
       </c>
       <c r="AD2" t="n">
-        <v>59459.9951785825</v>
+        <v>78802.27231436642</v>
       </c>
       <c r="AE2" t="n">
-        <v>81355.78859315881</v>
+        <v>107820.745491368</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.060934270026544e-06</v>
+        <v>9.040989735121294e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.314236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>73591.30631341317</v>
+        <v>97530.48486906594</v>
       </c>
     </row>
     <row r="3">
@@ -21720,28 +21720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>48.01928450712935</v>
+        <v>76.98989552069284</v>
       </c>
       <c r="AB3" t="n">
-        <v>65.70210352395161</v>
+        <v>105.3409716058439</v>
       </c>
       <c r="AC3" t="n">
-        <v>59.43158697712114</v>
+        <v>95.287377122791</v>
       </c>
       <c r="AD3" t="n">
-        <v>48019.28450712935</v>
+        <v>76989.89552069284</v>
       </c>
       <c r="AE3" t="n">
-        <v>65702.10352395161</v>
+        <v>105340.9716058439</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.495824702515143e-06</v>
+        <v>9.817889755206174e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.975694444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>59431.58697712114</v>
+        <v>95287.377122791</v>
       </c>
     </row>
     <row r="4">
@@ -21826,28 +21826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>47.10309577269302</v>
+        <v>66.53062425449752</v>
       </c>
       <c r="AB4" t="n">
-        <v>64.44853367810214</v>
+        <v>91.0301352289605</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.29765607796282</v>
+        <v>82.3423468843278</v>
       </c>
       <c r="AD4" t="n">
-        <v>47103.09577269302</v>
+        <v>66530.62425449752</v>
       </c>
       <c r="AE4" t="n">
-        <v>64448.53367810214</v>
+        <v>91030.1352289605</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.689875188182488e-06</v>
+        <v>1.01645467863801e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.836805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>58297.65607796282</v>
+        <v>82342.3468843278</v>
       </c>
     </row>
     <row r="5">
@@ -21932,28 +21932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.84537155391018</v>
+        <v>66.27290003571467</v>
       </c>
       <c r="AB5" t="n">
-        <v>64.09590403197355</v>
+        <v>90.67750558283188</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.97868091034182</v>
+        <v>82.02337171670678</v>
       </c>
       <c r="AD5" t="n">
-        <v>46845.37155391018</v>
+        <v>66272.90003571467</v>
       </c>
       <c r="AE5" t="n">
-        <v>64095.90403197354</v>
+        <v>90677.50558283189</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.740739860469158e-06</v>
+        <v>1.025541281140391e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>57978.68091034181</v>
+        <v>82023.37171670678</v>
       </c>
     </row>
   </sheetData>
